--- a/students_info.xlsx
+++ b/students_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="14720"/>
+    <workbookView windowHeight="14720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息" sheetId="2" r:id="rId1"/>
@@ -646,9 +646,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -667,23 +667,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,7 +683,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,23 +705,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,21 +752,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -780,16 +759,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,9 +789,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,181 +838,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,15 +1067,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1094,8 +1085,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,8 +1123,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1139,176 +1147,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1693,7 +1693,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -2859,8 +2859,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.4" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -2869,6 +2869,7 @@
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="4" width="28.625" customWidth="1"/>
     <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="28.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/students_info.xlsx
+++ b/students_info.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="14720" activeTab="1"/>
+    <workbookView windowHeight="16360"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息" sheetId="2" r:id="rId1"/>
     <sheet name="运行参数" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">学生信息!$A$1:$H$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">学生信息!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="206">
   <si>
     <t>学生姓名</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>家庭住址</t>
-  </si>
-  <si>
-    <t>是否提交</t>
   </si>
   <si>
     <t>陈健喜</t>
@@ -647,9 +644,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -668,17 +665,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,6 +708,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -705,16 +756,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,24 +793,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,58 +807,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -832,37 +829,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,37 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,97 +1003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,6 +1064,80 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1090,225 +1161,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1691,13 +1688,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="2" customWidth="1"/>
@@ -1705,15 +1702,14 @@
     <col min="4" max="4" width="13" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="11" style="2"/>
-    <col min="10" max="10" width="12.625" style="2"/>
-    <col min="11" max="11" width="11" style="2"/>
-    <col min="12" max="12" width="12.625" style="2"/>
-    <col min="13" max="16384" width="11" style="2"/>
+    <col min="7" max="8" width="11" style="2"/>
+    <col min="9" max="9" width="12.625" style="2"/>
+    <col min="10" max="10" width="11" style="2"/>
+    <col min="11" max="11" width="12.625" style="2"/>
+    <col min="12" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1732,1120 +1728,973 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="7">
         <v>18476766478</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7">
         <v>13421582621</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="B3" s="8">
         <v>13642913612</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8">
         <v>15019118393</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="B4" s="7">
         <v>13129420836</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
         <v>18926484438</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="7">
         <v>13371175529</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
         <v>13650415638</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="B6" s="7">
         <v>18922971236</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7">
         <v>13612769422</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="B7" s="10">
         <v>13392875016</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11">
         <v>13434791604</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="B8" s="7">
         <v>15999818171</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
         <v>14718002799</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="B9" s="7">
         <v>13538315086</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7">
         <v>15913766820</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="B10" s="8">
         <v>13790405836</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8">
         <v>13712317870</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="8" t="s">
+    </row>
+    <row r="11" ht="13" spans="1:6">
+      <c r="A11" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="13" spans="1:7">
-      <c r="A11" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="B11" s="7">
         <v>17620799828</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
         <v>13927945098</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="B12" s="7">
         <v>13686218062</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
         <v>13712510325</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="B13" s="7">
         <v>18033191107</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
         <v>13790632303</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="7" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="B14" s="7">
         <v>13238362256</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7">
         <v>13724526683</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="B15" s="7">
         <v>13728244923</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7">
         <v>13728347541</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="B16" s="7">
         <v>13790491083</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7">
         <v>13712363444</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="7" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="B17" s="7">
         <v>13433037078</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="7">
         <v>13929456018</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="B18" s="7">
         <v>13392730502</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="7">
         <v>18128699803</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="B19" s="7">
         <v>13712563403</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="7">
         <v>13302646321</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="B20" s="7">
         <v>18664141783</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="7">
         <v>13058502166</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="B21" s="7">
         <v>13537447062</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="7">
         <v>13580943126</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="7" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="B22" s="7">
         <v>19866816947</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="7">
         <v>15019125998</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="7" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="B23" s="7">
         <v>15916948163</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="7">
         <v>13926836641</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="7" t="s">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="B24" s="7">
         <v>13723562809</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="7">
         <v>13717182088</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="7" t="s">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="B25" s="15">
         <v>13794977111</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="7">
         <v>13509227991</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="7" t="s">
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="B26" s="7">
         <v>13662925976</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="7">
         <v>18688630932</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="7" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="B27" s="7">
         <v>13728226624</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="7">
         <v>13631755055</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="7" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="B28" s="7">
         <v>13412144909</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" s="7">
         <v>13600284319</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="B29" s="7">
         <v>18688425664</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="7">
         <v>13726484283</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="B30" s="7">
         <v>15308460079</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="7">
         <v>13686035201</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="7" t="s">
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="B31" s="7">
         <v>13712561949</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="7">
         <v>13712906163</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="7" t="s">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="B32" s="7">
         <v>15820941823</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32" s="7">
         <v>13128053512</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="7" t="s">
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="B33" s="15">
         <v>19116958710</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="7">
         <v>19116983897</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="7" t="s">
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="B34" s="7">
         <v>13751335602</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34" s="7">
         <v>13612684091</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="7" t="s">
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="B35" s="7">
         <v>15920258289</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="7">
         <v>13827224100</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="7" t="s">
+    </row>
+    <row r="36" ht="13.2" spans="1:6">
+      <c r="A36" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="13.2" spans="1:7">
-      <c r="A36" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="B36" s="16">
         <v>19107414214</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" s="16">
         <v>13112868628</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="19" t="s">
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="B37" s="15">
         <v>15817725162</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D37" s="17">
         <v>13662793169</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="7" t="s">
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="B38" s="15">
         <v>17841308568</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D38" s="18">
         <v>13649829762</v>
       </c>
       <c r="E38" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="7" t="s">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="B39" s="15">
         <v>13712818571</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D39" s="18">
         <v>13620065263</v>
       </c>
       <c r="E39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="7" t="s">
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="B40" s="15">
         <v>13686196332</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40" s="18">
         <v>13686163878</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F40" s="7" t="s">
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="G40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="13" t="s">
-        <v>163</v>
       </c>
       <c r="B41" s="15">
         <v>15837610235</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D41" s="18">
         <v>13809827429</v>
       </c>
       <c r="E41" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="7" t="s">
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="B42" s="15">
         <v>13794983708</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D42" s="18">
         <v>13713279973</v>
       </c>
       <c r="E42" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="7" t="s">
+    </row>
+    <row r="43" ht="13.2" spans="1:6">
+      <c r="A43" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="13.2" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>171</v>
       </c>
       <c r="B43" s="19">
         <v>16763479157</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D43" s="18">
         <v>13712673733</v>
       </c>
       <c r="E43" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F43" s="7" t="s">
+    </row>
+    <row r="44" ht="13.2" spans="1:6">
+      <c r="A44" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="13.2" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="B44" s="16">
         <v>17370596625</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D44" s="16">
         <v>13532777801</v>
       </c>
       <c r="E44" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F44" s="7" t="s">
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="B45" s="10">
         <v>13712764606</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D45" s="7">
         <v>15899662929</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="7" t="s">
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G45" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="B46" s="20">
         <v>17520161108</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D46" s="20">
         <v>15273573965</v>
       </c>
       <c r="E46" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="20" t="s">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G46" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="B47" s="10">
         <v>17831651614</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D47" s="10">
         <v>13695135603</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="10" t="s">
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="G47" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="B48" s="10">
         <v>13786059330</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D48" s="10">
         <v>13620078102</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F48" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G48" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="B49" s="17">
         <v>13480461761</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D49" s="7">
         <v>13532707083</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="8">
-        <v>0</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="C44" name="区域1_1"/>
   </protectedRanges>
-  <autoFilter ref="A1:H49">
+  <autoFilter ref="A1:G49">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2859,7 +2708,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2874,39 +2723,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D2">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="3:3">

--- a/students_info.xlsx
+++ b/students_info.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="16360"/>
+    <workbookView windowHeight="16360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息" sheetId="2" r:id="rId1"/>
     <sheet name="运行参数" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">学生信息!$A$1:$G$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">学生信息!$B$1:$H$49</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="207">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>学生姓名</t>
   </si>
@@ -643,10 +646,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -678,15 +681,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -694,7 +690,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,6 +707,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,11 +751,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -765,13 +798,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -784,29 +810,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -829,139 +832,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,42 +1013,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,22 +1080,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,156 +1141,171 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1359,14 +1362,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1688,32 +1691,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11" style="2"/>
-    <col min="9" max="9" width="12.625" style="2"/>
-    <col min="10" max="10" width="11" style="2"/>
-    <col min="11" max="11" width="12.625" style="2"/>
-    <col min="12" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="2" width="10" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54.125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="11" style="2"/>
+    <col min="10" max="10" width="12.625" style="2"/>
+    <col min="11" max="11" width="11" style="2"/>
+    <col min="12" max="12" width="12.625" style="2"/>
+    <col min="13" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1728,973 +1732,1120 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
         <v>18476766478</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7">
+        <v>13421582621</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8">
+        <v>13642913612</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8">
+        <v>15019118393</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>13129420836</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7">
+        <v>18926484438</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>13371175529</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7">
+        <v>13650415638</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7">
+        <v>18922971236</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7">
+        <v>13612769422</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10">
+        <v>13392875016</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="11">
+        <v>13434791604</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="D2" s="7">
-        <v>13421582621</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8">
-        <v>13642913612</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8">
-        <v>15019118393</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="7">
-        <v>13129420836</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7">
-        <v>18926484438</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="7">
-        <v>13371175529</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7">
-        <v>13650415638</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="7">
-        <v>18922971236</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7">
-        <v>13612769422</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="10">
-        <v>13392875016</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="11">
-        <v>13434791604</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7">
         <v>15999818171</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7">
         <v>14718002799</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="G8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="7">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="7">
         <v>13538315086</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="D9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7">
         <v>15913766820</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13" t="s">
+      <c r="G9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="8">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8">
         <v>13790405836</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="D10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="8">
         <v>13712317870</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" ht="13" spans="1:6">
-      <c r="A11" s="14" t="s">
+      <c r="G10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="7">
+    </row>
+    <row r="11" ht="13" spans="1:7">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7">
         <v>17620799828</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="7">
+        <v>13927945098</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7">
+        <v>13686218062</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="7">
+        <v>13712510325</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7">
+        <v>18033191107</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7">
+        <v>13790632303</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13238362256</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="7">
+        <v>13724526683</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13728244923</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="7">
+        <v>13728347541</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13790491083</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="7">
+        <v>13712363444</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="7">
+        <v>13433037078</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="7">
+        <v>13929456018</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="7">
+        <v>13392730502</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="7">
+        <v>18128699803</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="7">
+        <v>13712563403</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="7">
+        <v>13302646321</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="7">
+        <v>18664141783</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="7">
+        <v>13058502166</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="7">
+        <v>13537447062</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="7">
+        <v>13580943126</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="7">
+        <v>19866816947</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="7">
+        <v>15019125998</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="7">
+        <v>15916948163</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="7">
+        <v>13926836641</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="7">
+        <v>13723562809</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="7">
+        <v>13717182088</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="15">
+        <v>13794977111</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="7">
+        <v>13509227991</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="7">
+        <v>13662925976</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="7">
+        <v>18688630932</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="7">
+        <v>13728226624</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="7">
+        <v>13631755055</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="7">
+        <v>13412144909</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="7">
+        <v>13600284319</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="7">
+        <v>18688425664</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="7">
+        <v>13726484283</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="7">
+        <v>15308460079</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="7">
+        <v>13686035201</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="7">
+        <v>13712561949</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="7">
+        <v>13712906163</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="7">
+        <v>15820941823</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="7">
+        <v>13128053512</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="15">
+        <v>19116958710</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="7">
+        <v>19116983897</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="7">
+        <v>13751335602</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="7">
+        <v>13612684091</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="7">
+        <v>15920258289</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="7">
+        <v>13827224100</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" ht="13.2" spans="1:7">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="16">
+        <v>19107414214</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="16">
+        <v>13112868628</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="15">
+        <v>15817725162</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="19">
+        <v>13662793169</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="15">
+        <v>17841308568</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="20">
+        <v>13649829762</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="15">
+        <v>13712818571</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="20">
+        <v>13620065263</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="15">
+        <v>13686196332</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="20">
+        <v>13686163878</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="15">
+        <v>15837610235</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="20">
+        <v>13809827429</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="15">
+        <v>13794983708</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="20">
+        <v>13713279973</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" ht="13.2" spans="1:7">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="17">
+        <v>16763479157</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="20">
+        <v>13712673733</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" ht="13.2" spans="1:7">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="D11" s="7">
-        <v>13927945098</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="B44" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="16">
+        <v>17370596625</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="16">
+        <v>13532777801</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="7">
-        <v>13686218062</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="7">
-        <v>13712510325</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="7">
-        <v>18033191107</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7">
-        <v>13790632303</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="7">
-        <v>13238362256</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="7">
-        <v>13724526683</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="7">
-        <v>13728244923</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="7">
-        <v>13728347541</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="7">
-        <v>13790491083</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="7">
-        <v>13712363444</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="7">
-        <v>13433037078</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="7">
-        <v>13929456018</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="7">
-        <v>13392730502</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="7">
-        <v>18128699803</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="7">
-        <v>13712563403</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="7">
-        <v>13302646321</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="7">
-        <v>18664141783</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="7">
-        <v>13058502166</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="7">
-        <v>13537447062</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="7">
-        <v>13580943126</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="7">
-        <v>19866816947</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="7">
-        <v>15019125998</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="7">
-        <v>15916948163</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="7">
-        <v>13926836641</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="7">
-        <v>13723562809</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="7">
-        <v>13717182088</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="15">
-        <v>13794977111</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="7">
-        <v>13509227991</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="7">
-        <v>13662925976</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="7">
-        <v>18688630932</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="7">
-        <v>13728226624</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="7">
-        <v>13631755055</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="7">
-        <v>13412144909</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="7">
-        <v>13600284319</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="7">
-        <v>18688425664</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="7">
-        <v>13726484283</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="7">
-        <v>15308460079</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="7">
-        <v>13686035201</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="7">
-        <v>13712561949</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="7">
-        <v>13712906163</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="7">
-        <v>15820941823</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="7">
-        <v>13128053512</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="15">
-        <v>19116958710</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="7">
-        <v>19116983897</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="7">
-        <v>13751335602</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="7">
-        <v>13612684091</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="7">
-        <v>15920258289</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="7">
-        <v>13827224100</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" ht="13.2" spans="1:6">
-      <c r="A36" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" s="16">
-        <v>19107414214</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="16">
-        <v>13112868628</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="15">
-        <v>15817725162</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="17">
-        <v>13662793169</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="15">
-        <v>17841308568</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="18">
-        <v>13649829762</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="15">
-        <v>13712818571</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="18">
-        <v>13620065263</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="15">
-        <v>13686196332</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="18">
-        <v>13686163878</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="15">
-        <v>15837610235</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="18">
-        <v>13809827429</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="15">
-        <v>13794983708</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="18">
-        <v>13713279973</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" ht="13.2" spans="1:6">
-      <c r="A43" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="19">
-        <v>16763479157</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" s="18">
-        <v>13712673733</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" ht="13.2" spans="1:6">
-      <c r="A44" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B44" s="16">
-        <v>17370596625</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="16">
-        <v>13532777801</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B45" s="10">
+      <c r="B45" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="10">
         <v>13712764606</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="D45" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="7">
         <v>15899662929</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2" t="s">
+      <c r="G45" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="20">
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="18">
         <v>17520161108</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="20">
+      <c r="D46" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="18">
         <v>15273573965</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="18" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="7" t="s">
+      <c r="G46" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="10">
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="10">
         <v>17831651614</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="10">
+      <c r="D47" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="10">
         <v>13695135603</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="12" t="s">
+      <c r="G47" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="10">
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="10">
         <v>13786059330</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="10">
+      <c r="D48" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="10">
         <v>13620078102</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="7" t="s">
+      <c r="F48" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B49" s="17">
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="19">
         <v>13480461761</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="D49" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="7">
         <v>13532707083</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="F49" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="C44" name="区域1_1"/>
+    <protectedRange sqref="D44" name="区域1_1"/>
   </protectedRanges>
-  <autoFilter ref="A1:G49">
+  <autoFilter ref="B1:H49">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2706,24 +2857,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.4" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="4" width="28.625" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="28.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="5" width="28.625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="28.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>196</v>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>197</v>
@@ -2740,10 +2891,13 @@
       <c r="F1" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>203</v>
@@ -2751,34 +2905,37 @@
       <c r="C2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="3:4">
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="4:6">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"申请临时留宿,申请临时不留宿,申请取消长期留宿,申请长期留宿"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"信息技术系,机电技术系,财经技术系"</formula1>
     </dataValidation>
   </dataValidations>
